--- a/results/xlsx_reports/Rosenbrock_WOA.xlsx
+++ b/results/xlsx_reports/Rosenbrock_WOA.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>D=2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>D=10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>D=2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.0122937296379841</v>
+      </c>
+      <c r="C2" t="n">
         <v>6.398991712816151</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0122937296379841</v>
       </c>
       <c r="D2" t="n">
         <v>26.00896246067868</v>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.1617568645927205</v>
+      </c>
+      <c r="C3" t="n">
         <v>704.4838736440505</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1617568645927205</v>
       </c>
       <c r="D3" t="n">
         <v>74650.50863876262</v>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.6380778754640418</v>
+      </c>
+      <c r="C4" t="n">
         <v>2314.11087829771</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6380778754640418</v>
       </c>
       <c r="D4" t="n">
         <v>182999.7714014809</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.1625107038806391</v>
+      </c>
+      <c r="C5" t="n">
         <v>926.7828364849876</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1625107038806391</v>
       </c>
       <c r="D5" t="n">
         <v>64475.29310894131</v>
